--- a/LaserControlBoard/Project Outputs for PCBLaserControlBoardV1.0/PCBLaserControlBoard.xlsx
+++ b/LaserControlBoard/Project Outputs for PCBLaserControlBoardV1.0/PCBLaserControlBoard.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FxSlava\Documents\Laser-LED-STM-Board-Project\LaserControlBoard\Project Outputs for PCBLaserControlBoardV1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
   <si>
     <t>Comment</t>
   </si>
@@ -462,205 +467,10 @@
     <t>DO-41</t>
   </si>
   <si>
-    <t>ChipRes</t>
-  </si>
-  <si>
-    <t>Chip resistor</t>
-  </si>
-  <si>
-    <t>BOOT1, WIFI1</t>
-  </si>
-  <si>
-    <t>RES0805</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>R1, R18, R36, R39, R42, R50, R51, R53, R57, R60, R63, R64, R65, R66, R67, R68, R74, R78, R84, R104, R105, R121, R130, R151, R152, R153, R156</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R101</t>
-  </si>
-  <si>
-    <t>3K3</t>
-  </si>
-  <si>
-    <t>R11, R12, R28, R59, R81</t>
-  </si>
-  <si>
-    <t>4K7</t>
-  </si>
-  <si>
-    <t>R2, R10, R13, R16, R19, R21, R23, R25, R26, R30</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R3, R5, R6, R7, R8, R14, R17, R20, R22, R24, R29, R31, R32, R35, R48, R52, R61, R73, R79, R80, R89, R90, R103, R106, R107, R110, R111, R112, R113, R117, R119, R154</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>R33, R37</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>R4, R9, R15, R27, R34, R38, R41, R43, R44, R46, R47, R49, R54, R58, R62, R69, R72, R75, R77, R83, R91, R92, R93, R94, R95, R96, R97, R98, R99, R100, R114, R115, R116, R118, R120, R122, R124, R126, R128, R131, R132, R133, R134, R157</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R40, R45, R123, R125, R127, R129, R135, R136, R137, R138, R139, R140, R141, R142, R143, R144, R145, R146, R147, R148, R149, R150</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>R55</t>
-  </si>
-  <si>
-    <t>18K</t>
-  </si>
-  <si>
-    <t>R56</t>
-  </si>
-  <si>
-    <t>11K</t>
-  </si>
-  <si>
-    <t>R70, R71</t>
-  </si>
-  <si>
-    <t>1R2</t>
-  </si>
-  <si>
-    <t>R76</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>R82, R85, R86</t>
-  </si>
-  <si>
-    <t>5K1</t>
-  </si>
-  <si>
-    <t>R87, R88, R102, R108, R109, R155</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>ChipCap</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C1, C3, C4, C7, C8, C9, C10, C11, C14, C21, C32, C33, C36, C38, C42, C43, C50, C53, C60, C61</t>
-  </si>
-  <si>
-    <t>CAP0805</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C17, C44, C45, C46, C47, C48, C49, C51, C52, C54, C55, C56, C57, C58, C59</t>
-  </si>
-  <si>
-    <t>0.01uF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CAP1210</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C23, C24</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>1000pF</t>
-  </si>
-  <si>
-    <t>C35, C37</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C6, C16, C25, C27, C29, C30, C31, C62</t>
-  </si>
-  <si>
     <t>CENR-50M</t>
   </si>
   <si>
     <t>P9</t>
-  </si>
-  <si>
-    <t>Cap Pol SMD</t>
-  </si>
-  <si>
-    <t>Polarized Capacitor (Radial)</t>
-  </si>
-  <si>
-    <t>C15, C20, C22, C28, C41</t>
-  </si>
-  <si>
-    <t>CAPC7343</t>
-  </si>
-  <si>
-    <t>47u</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>Cap Pol 200/100</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>CAPPR7.5-16x25_1</t>
-  </si>
-  <si>
-    <t>100u</t>
-  </si>
-  <si>
-    <t>Cap Pol 100/47</t>
-  </si>
-  <si>
-    <t>C12, C13, C18, C39, C40</t>
-  </si>
-  <si>
-    <t>CAPPR5-10x17_1</t>
   </si>
   <si>
     <t>BC857</t>
@@ -1030,7 +840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1882,575 +1694,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="3">
-        <v>27</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="3">
-        <v>5</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="3">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="3">
-        <v>32</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="3">
-        <v>44</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="3">
-        <v>22</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="3">
-        <v>15</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" s="3">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="3">
-        <v>5</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>21</v>
@@ -2464,13 +1736,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>21</v>
